--- a/Rscripts/invasives freq.xlsx
+++ b/Rscripts/invasives freq.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\UWMEPreport\Rscripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="12285" activeTab="1"/>
   </bookViews>
@@ -14,7 +19,7 @@
     <definedName name="Bins">Sheet1!$A$1:$A$10</definedName>
     <definedName name="Freqinvasive">Freqofinvasives!$D$1:$D$93</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -467,9 +472,17 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF3201B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -501,7 +514,7 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
@@ -594,11 +607,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="52949760"/>
-        <c:axId val="52952064"/>
+        <c:axId val="254638080"/>
+        <c:axId val="254638472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52949760"/>
+        <c:axId val="254638080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,7 +627,7 @@
                   <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Frequency of Nonnatives</a:t>
                 </a:r>
               </a:p>
@@ -634,17 +647,31 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400"/>
+              <a:defRPr sz="1400" b="1">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52952064"/>
+        <c:crossAx val="254638472"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -652,7 +679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52952064"/>
+        <c:axId val="254638472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -665,10 +692,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr sz="1600"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Number of Sites</a:t>
                 </a:r>
               </a:p>
@@ -688,17 +715,24 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="25400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400"/>
+              <a:defRPr sz="1400" b="1"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52949760"/>
+        <c:crossAx val="254638080"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -707,6 +741,13 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -719,10 +760,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
@@ -793,7 +834,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,7 +869,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2410,7 +2451,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
